--- a/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 4.xlsx
@@ -4151,8 +4151,8 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="K11:P11"/>
     <mergeCell ref="C11:I11"/>
-    <mergeCell ref="K11:P11"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C33:D33"/>
@@ -15263,12 +15263,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B8&amp;C8, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E8" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F8" s="114" t="n"/>
+      <c r="E8" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F8" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G8" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15303,12 +15307,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B9&amp;C9, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E9" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F9" s="114" t="n"/>
+      <c r="E9" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F9" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G9" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15343,12 +15351,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B10&amp;C10, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E10" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F10" s="114" t="n"/>
+      <c r="E10" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F10" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G10" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15383,12 +15395,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B11&amp;C11, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E11" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F11" s="114" t="n"/>
+      <c r="E11" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F11" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G11" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15423,12 +15439,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B12&amp;C12, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E12" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F12" s="114" t="n"/>
+      <c r="E12" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F12" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G12" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15463,12 +15483,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B13&amp;C13, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E13" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F13" s="114" t="n"/>
+      <c r="E13" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F13" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G13" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15503,12 +15527,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B14&amp;C14, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E14" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F14" s="114" t="n"/>
+      <c r="E14" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F14" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G14" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15543,12 +15571,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B15&amp;C15, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E15" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F15" s="114" t="n"/>
+      <c r="E15" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F15" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G15" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15637,9 +15669,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G17" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G17" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H17" s="114" t="n"/>
@@ -15883,12 +15915,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B23&amp;C23, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E23" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F23" s="114" t="n"/>
+      <c r="E23" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F23" s="114" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G23" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15923,12 +15959,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B24&amp;C24, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E24" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F24" s="114" t="n"/>
+      <c r="E24" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F24" s="114" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G24" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -15963,12 +16003,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B25&amp;C25, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E25" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F25" s="114" t="n"/>
+      <c r="E25" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F25" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G25" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16003,12 +16047,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B26&amp;C26, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E26" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F26" s="114" t="n"/>
+      <c r="E26" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F26" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G26" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16097,9 +16145,9 @@
           <t>03/12/2025</t>
         </is>
       </c>
-      <c r="G28" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G28" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H28" s="114" t="n"/>
@@ -16131,12 +16179,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B29&amp;C29, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E29" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F29" s="114" t="n"/>
+      <c r="E29" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F29" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G29" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16225,9 +16277,9 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G31" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G31" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H31" s="114" t="n"/>
@@ -16391,12 +16443,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B35&amp;C35, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E35" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F35" s="114" t="n"/>
+      <c r="E35" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F35" s="114" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G35" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16475,12 +16531,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B37&amp;C37, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E37" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F37" s="114" t="n"/>
+      <c r="E37" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F37" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G37" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16525,9 +16585,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G38" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G38" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H38" s="114" t="n"/>
@@ -16731,12 +16791,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B43&amp;C43, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E43" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F43" s="114" t="n"/>
+      <c r="E43" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F43" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G43" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16869,9 +16933,9 @@
           <t>05/12/2025</t>
         </is>
       </c>
-      <c r="G46" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G46" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H46" s="114" t="n"/>
@@ -16903,15 +16967,15 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B47&amp;C47, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E47" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E47" s="115" t="inlineStr">
+        <is>
+          <t>Outras Ocorrências</t>
         </is>
       </c>
       <c r="F47" s="114" t="n"/>
-      <c r="G47" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G47" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H47" s="114" t="n"/>
@@ -17085,9 +17149,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G51" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G51" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H51" s="114" t="n"/>
@@ -17174,7 +17238,11 @@
           <t>Não</t>
         </is>
       </c>
-      <c r="H53" s="114" t="n"/>
+      <c r="H53" s="114" t="inlineStr">
+        <is>
+          <t>Técnico foi demitido</t>
+        </is>
+      </c>
       <c r="I53" s="114" t="n"/>
       <c r="J53" s="114" t="inlineStr">
         <is>
@@ -17243,12 +17311,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B55&amp;C55, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E55" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F55" s="114" t="n"/>
+      <c r="E55" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F55" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G55" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17327,12 +17399,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B57&amp;C57, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E57" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F57" s="114" t="n"/>
+      <c r="E57" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F57" s="114" t="inlineStr">
+        <is>
+          <t>10/12/2025</t>
+        </is>
+      </c>
       <c r="G57" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -17367,12 +17443,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B58&amp;C58, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E58" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F58" s="114" t="n"/>
+      <c r="E58" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F58" s="114" t="inlineStr">
+        <is>
+          <t>09/12/2025</t>
+        </is>
+      </c>
       <c r="G58" s="123" t="inlineStr">
         <is>
           <t>Não</t>

--- a/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 4.xlsx
@@ -170,7 +170,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="73">
+  <fills count="65">
     <fill>
       <patternFill/>
     </fill>
@@ -485,20 +485,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFB879D1"/>
-        <bgColor rgb="FFB879D1"/>
+        <fgColor rgb="00B879D1"/>
+        <bgColor rgb="00B879D1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA020F0"/>
-        <bgColor rgb="FFA020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF66FF66"/>
-        <bgColor rgb="FF66FF66"/>
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
       </patternFill>
     </fill>
     <fill>
@@ -509,14 +503,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B879D1"/>
-        <bgColor rgb="00B879D1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF006400"/>
-        <bgColor rgb="FF006400"/>
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -545,32 +533,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF6666"/>
-        <bgColor rgb="FFFF6666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF808080"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -581,20 +545,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF6400"/>
-        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -1166,22 +1118,31 @@
     <xf numFmtId="0" fontId="20" fillId="52" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="53" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="66" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="54" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="56" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="55" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="67" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="56" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="58" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="59" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="60" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1190,29 +1151,20 @@
     <xf numFmtId="0" fontId="21" fillId="61" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="62" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="64" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="68" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="62" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="70" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="63" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="72" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="64" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>

--- a/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 4.xlsx
+++ b/scripts/Monitoramento/outputs/Expansão/0 - Monitoramento Form 4.xlsx
@@ -170,7 +170,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="65">
+  <fills count="73">
     <fill>
       <patternFill/>
     </fill>
@@ -485,14 +485,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B879D1"/>
-        <bgColor rgb="00B879D1"/>
+        <fgColor rgb="FFB879D1"/>
+        <bgColor rgb="FFB879D1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00A020F0"/>
-        <bgColor rgb="00A020F0"/>
+        <fgColor rgb="FFA020F0"/>
+        <bgColor rgb="FFA020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor rgb="FF66FF66"/>
       </patternFill>
     </fill>
     <fill>
@@ -503,8 +509,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00006400"/>
-        <bgColor rgb="00006400"/>
+        <fgColor rgb="00B879D1"/>
+        <bgColor rgb="00B879D1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF006400"/>
+        <bgColor rgb="FF006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -533,8 +545,32 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF6666"/>
+        <bgColor rgb="FFFF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF6666"/>
         <bgColor rgb="00FF6666"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF808080"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00A020F0"/>
+        <bgColor rgb="00A020F0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00006400"/>
+        <bgColor rgb="00006400"/>
       </patternFill>
     </fill>
     <fill>
@@ -545,8 +581,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00FF0000"/>
         <bgColor rgb="00FF0000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6400"/>
+        <bgColor rgb="FFFF6400"/>
       </patternFill>
     </fill>
     <fill>
@@ -1118,31 +1166,22 @@
     <xf numFmtId="0" fontId="20" fillId="52" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="53" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="54" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="66" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="55" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="21" fillId="56" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="56" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="57" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="58" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="67" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="59" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="60" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -1151,20 +1190,29 @@
     <xf numFmtId="0" fontId="21" fillId="61" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="62" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="64" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="21" fillId="11" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="62" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="68" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="63" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="70" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="64" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="22" fillId="72" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4103,8 +4151,8 @@
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="M23:N23"/>
     <mergeCell ref="O23:P23"/>
+    <mergeCell ref="C11:I11"/>
     <mergeCell ref="K11:P11"/>
-    <mergeCell ref="C11:I11"/>
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="C33:D33"/>
@@ -13684,9 +13732,9 @@
           <t>09/11/2025</t>
         </is>
       </c>
-      <c r="G33" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G33" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H33" s="114" t="n"/>
@@ -15009,9 +15057,9 @@
           <t>02/12/2025</t>
         </is>
       </c>
-      <c r="G3" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G3" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H3" s="114" t="n"/>
@@ -15049,12 +15097,16 @@
         </is>
       </c>
       <c r="F4" s="114" t="n"/>
-      <c r="G4" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
-        </is>
-      </c>
-      <c r="H4" s="114" t="n"/>
+      <c r="G4" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+      <c r="H4" s="114" t="inlineStr">
+        <is>
+          <t>Sem acesso aos dados e informações. Técnica impossibilitada atuar na UVR</t>
+        </is>
+      </c>
       <c r="I4" s="114" t="n"/>
       <c r="J4" s="114" t="inlineStr">
         <is>
@@ -15093,9 +15145,9 @@
           <t>02/12/2025</t>
         </is>
       </c>
-      <c r="G5" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G5" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H5" s="114" t="n"/>
@@ -15181,9 +15233,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G7" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G7" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H7" s="114" t="n"/>
@@ -15655,9 +15707,9 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B18&amp;C18, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E18" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
+      <c r="E18" s="125" t="inlineStr">
+        <is>
+          <t>Sem Técnico</t>
         </is>
       </c>
       <c r="F18" s="114" t="n"/>
@@ -15749,9 +15801,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G20" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G20" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H20" s="114" t="n"/>
@@ -15827,12 +15879,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B22&amp;C22, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E22" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F22" s="114" t="n"/>
+      <c r="E22" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F22" s="114" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
       <c r="G22" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16141,9 +16197,9 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G29" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G29" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H29" s="114" t="n"/>
@@ -16185,9 +16241,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G30" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G30" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H30" s="114" t="n"/>
@@ -16317,9 +16373,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G33" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G33" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H33" s="114" t="n"/>
@@ -16361,9 +16417,9 @@
           <t>02/12/2025</t>
         </is>
       </c>
-      <c r="G34" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G34" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H34" s="114" t="n"/>
@@ -16493,9 +16549,9 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G37" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G37" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H37" s="114" t="n"/>
@@ -16571,12 +16627,16 @@
         <f>IFERROR(IF(INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))="", "", INDEX('01.25'!D2:D500, MATCH(B39&amp;C39, INDEX('01.25'!B2:B500&amp;'01.25'!C2:C500, 0), 0))), "")</f>
         <v/>
       </c>
-      <c r="E39" s="129" t="inlineStr">
-        <is>
-          <t>Atrasado</t>
-        </is>
-      </c>
-      <c r="F39" s="114" t="n"/>
+      <c r="E39" s="117" t="inlineStr">
+        <is>
+          <t>Enviado</t>
+        </is>
+      </c>
+      <c r="F39" s="114" t="inlineStr">
+        <is>
+          <t>17/12/2025</t>
+        </is>
+      </c>
       <c r="G39" s="123" t="inlineStr">
         <is>
           <t>Não</t>
@@ -16621,9 +16681,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G40" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G40" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H40" s="114" t="n"/>
@@ -16665,9 +16725,9 @@
           <t>08/12/2025</t>
         </is>
       </c>
-      <c r="G41" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G41" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H41" s="114" t="n"/>
@@ -17145,9 +17205,9 @@
           <t>05/12/2025</t>
         </is>
       </c>
-      <c r="G52" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G52" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H52" s="114" t="n"/>
@@ -17273,9 +17333,9 @@
           <t>09/12/2025</t>
         </is>
       </c>
-      <c r="G55" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G55" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H55" s="114" t="n"/>
@@ -17317,9 +17377,9 @@
           <t>07/12/2025</t>
         </is>
       </c>
-      <c r="G56" s="123" t="inlineStr">
-        <is>
-          <t>Não</t>
+      <c r="G56" s="116" t="inlineStr">
+        <is>
+          <t>Sim</t>
         </is>
       </c>
       <c r="H56" s="114" t="n"/>
